--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_16_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_16_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10795.08082010369</v>
+        <v>2148221.083200634</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10795.08082010369</v>
+        <v>2148221.083200634</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>23722.86257094912</v>
+        <v>1423371.754256947</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>23722.86257094912</v>
+        <v>1423371.754256947</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1036646164.585055</v>
+        <v>42756672.40662499</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10365.29927144015</v>
+        <v>1103878.775957556</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19250.39341651388</v>
+        <v>1953958.278182057</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28135.48756158759</v>
+        <v>2804037.780406559</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>37963.16941468202</v>
+        <v>3603043.339780688</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>47680.77853679729</v>
+        <v>4406694.235616795</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>56665.70008674832</v>
+        <v>5256773.737841295</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>65650.62163669884</v>
+        <v>6106853.240065794</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>74635.54318664935</v>
+        <v>6956932.742290292</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>84325.40620311313</v>
+        <v>7740841.582770812</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>94091.13212863094</v>
+        <v>8539847.142145222</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>103398.5594832604</v>
+        <v>9367287.149769595</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>112673.7608652415</v>
+        <v>10188314.18883695</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>121948.9622472226</v>
+        <v>11009341.22790431</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>131592.7270935788</v>
+        <v>11812976.80013759</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>141346.6416739438</v>
+        <v>12611982.35951181</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>217</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>1231</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
